--- a/FACE_CODING/face_coding_app_v1.2.0/Result.xlsx
+++ b/FACE_CODING/face_coding_app_v1.2.0/Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,6 +843,174 @@
       </c>
       <c r="D29" t="inlineStr"/>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:54</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:55</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:55</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:56</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:56</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:56</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:57</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:57</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:57</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:57</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:58</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-05-02 12:50:58</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1 : hosein</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FACE_CODING/face_coding_app_v1.2.0/Result.xlsx
+++ b/FACE_CODING/face_coding_app_v1.2.0/Result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,6 +1011,66 @@
       </c>
       <c r="D41" t="inlineStr"/>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-06-03 20:22:13</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-06-03 20:22:14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-06-03 20:22:15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-06-03 20:22:16</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-06-03 20:22:16</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-06-03 20:22:17</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
